--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2866696.820988078</v>
+        <v>2961367.284770917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.53325642</v>
+        <v>6239134.533256419</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069172</v>
+        <v>840694.9721069176</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>213.7404825732053</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>42.40268970738709</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>157.0044783406141</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>252.7077160573361</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>228.2686594923559</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>99.66075074687581</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>164.0338552980361</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>327.2641554141694</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>120.7419800545116</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>141.9106946536002</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.683677351918</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.0203559212045</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
         <v>295.6178616169271</v>
@@ -1661,7 +1663,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4482050673222</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.36501853891424</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>101.3477409755648</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2059,7 +2061,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>192.0458031737962</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169271</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I20" t="n">
         <v>45.37937317040306</v>
@@ -2132,10 +2134,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T20" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>83.09022571964705</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4482050673223</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>166.2647263843988</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>178.2029743223149</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>81.26056038033109</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>132.4351839595132</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>16.27254474697781</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.21004808588174</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.986663735416</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>145.148367782564</v>
@@ -3235,10 +3237,10 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>189.3300118672892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>119.7401400319056</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
         <v>190.5400452173542</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>3.286488153988088</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U38" t="n">
         <v>251.0030623803221</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>130.4482050673222</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.84556785642513</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>157.340333142709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>97.68290229956054</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>167.1034138377676</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G44" t="n">
         <v>411.0203559212046</v>
@@ -4028,7 +4030,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T44" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U44" t="n">
         <v>251.0030623803221</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
         <v>97.68290229956054</v>
@@ -4186,22 +4188,22 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>114.418897831184</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>132.3386693478956</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1310.22335213854</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>2150.18672632798</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y2" t="n">
-        <v>2150.18672632798</v>
+        <v>1696.823192202662</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>569.538602044198</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>569.538602044198</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1138.15301396162</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>727.167109172012</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>309.2033010701989</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548715</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572903</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.740694543503</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.778177603092</v>
+        <v>948.9647165685888</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.778177603092</v>
+        <v>948.9647165685888</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>948.9647165685888</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>537.9788117789813</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.740694543503</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>606.1673881917762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>391.878965009939</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>391.878965009939</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>391.878965009939</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5026,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
         <v>855.3313972036599</v>
@@ -5051,16 +5053,16 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N11" t="n">
-        <v>3370.552243872425</v>
+        <v>2937.578788704561</v>
       </c>
       <c r="O11" t="n">
-        <v>4049.465812105077</v>
+        <v>3801.091529413711</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5121,25 +5123,25 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418659</v>
+        <v>446.4617558748525</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740672</v>
+        <v>801.8162955070538</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106303</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921421</v>
+        <v>1695.790367254408</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.14661647041</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400678</v>
       </c>
       <c r="Q12" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R12" t="n">
         <v>2587.498588679581</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854.9993882778166</v>
+        <v>510.2133979234424</v>
       </c>
       <c r="C13" t="n">
-        <v>854.9993882778166</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="D13" t="n">
-        <v>704.8827488654808</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="E13" t="n">
-        <v>556.9696552830877</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="F13" t="n">
-        <v>410.0797077851773</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G13" t="n">
-        <v>242.3321821269216</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5221,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T13" t="n">
-        <v>1485.429983149604</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U13" t="n">
-        <v>1485.429983149604</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.429983149604</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W13" t="n">
-        <v>1485.429983149604</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X13" t="n">
-        <v>1257.440432251586</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="Y13" t="n">
-        <v>1036.647853108056</v>
+        <v>510.2133979234424</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G14" t="n">
         <v>440.1593205155743</v>
@@ -5276,28 +5278,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1033.33334909125</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>1994.738226038838</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N14" t="n">
-        <v>2957.067641467479</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O14" t="n">
-        <v>3820.580382176629</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5318,7 +5320,7 @@
         <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5367,10 +5369,10 @@
         <v>1203.680327106303</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>227.4835329196067</v>
+        <v>574.7745773189903</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>574.7745773189903</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5458,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T16" t="n">
-        <v>1691.121090492215</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U16" t="n">
-        <v>1402.015786034242</v>
+        <v>1339.668814705368</v>
       </c>
       <c r="V16" t="n">
-        <v>1147.331297828355</v>
+        <v>1084.984326499481</v>
       </c>
       <c r="W16" t="n">
-        <v>857.9141277913939</v>
+        <v>795.5671564625204</v>
       </c>
       <c r="X16" t="n">
-        <v>629.9245768933765</v>
+        <v>795.5671564625204</v>
       </c>
       <c r="Y16" t="n">
-        <v>409.1319977498464</v>
+        <v>574.7745773189903</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
@@ -5513,22 +5515,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066563</v>
+        <v>765.1137348815562</v>
       </c>
       <c r="L17" t="n">
-        <v>1767.721909941649</v>
+        <v>1614.223600516549</v>
       </c>
       <c r="M17" t="n">
-        <v>2284.108388731333</v>
+        <v>2575.628477464137</v>
       </c>
       <c r="N17" t="n">
-        <v>3246.437804159973</v>
+        <v>3104.984437724914</v>
       </c>
       <c r="O17" t="n">
-        <v>4109.950544869123</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P17" t="n">
         <v>4495.258109903959</v>
@@ -5592,7 +5594,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K18" t="n">
         <v>488.1430095111803</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.71766921524075</v>
+        <v>611.1207615984353</v>
       </c>
       <c r="C19" t="n">
-        <v>95.71766921524075</v>
+        <v>611.1207615984353</v>
       </c>
       <c r="D19" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E19" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F19" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G19" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5695,28 +5697,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S19" t="n">
-        <v>1720.61395783393</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.656398353473</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.5510938955</v>
+        <v>1310.175947363653</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.565434123989</v>
+        <v>1310.175947363653</v>
       </c>
       <c r="W19" t="n">
-        <v>726.1482640870279</v>
+        <v>1020.758777326692</v>
       </c>
       <c r="X19" t="n">
-        <v>498.1587131890105</v>
+        <v>792.769226428675</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.3661340454805</v>
+        <v>792.769226428675</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036601</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155746</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5753,22 +5755,22 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K20" t="n">
-        <v>597.7080858612032</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872425</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>3904.333227026024</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q20" t="n">
         <v>4733.000021926293</v>
@@ -5829,7 +5831,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
         <v>488.1430095111803</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.71766921524075</v>
+        <v>641.9223222965069</v>
       </c>
       <c r="C22" t="n">
-        <v>95.71766921524075</v>
+        <v>557.9928013675705</v>
       </c>
       <c r="D22" t="n">
-        <v>95.71766921524075</v>
+        <v>557.9928013675705</v>
       </c>
       <c r="E22" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F22" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5932,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S22" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.249922329876</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.565434123989</v>
+        <v>1152.132071476998</v>
       </c>
       <c r="W22" t="n">
-        <v>726.1482640870279</v>
+        <v>862.714901440037</v>
       </c>
       <c r="X22" t="n">
-        <v>498.1587131890105</v>
+        <v>862.714901440037</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.3661340454805</v>
+        <v>641.9223222965069</v>
       </c>
     </row>
     <row r="23">
@@ -5993,19 +5995,19 @@
         <v>597.7080858612032</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496196</v>
+        <v>1033.33334909125</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443784</v>
+        <v>1759.910349798466</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872425</v>
+        <v>2722.239765227106</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.52506777933</v>
+        <v>3585.752505936256</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q23" t="n">
         <v>4733.000021926293</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.6538521431477</v>
+        <v>825.5985825778617</v>
       </c>
       <c r="C25" t="n">
-        <v>95.71766921524075</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="D25" t="n">
-        <v>95.71766921524075</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="E25" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H25" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6172,25 +6174,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.656398353473</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.5510938955</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V25" t="n">
-        <v>954.866605689613</v>
+        <v>1456.029177449649</v>
       </c>
       <c r="W25" t="n">
-        <v>665.4494356526525</v>
+        <v>1456.029177449649</v>
       </c>
       <c r="X25" t="n">
-        <v>485.4464312866778</v>
+        <v>1228.039626551631</v>
       </c>
       <c r="Y25" t="n">
-        <v>264.6538521431477</v>
+        <v>1007.247047408101</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6227,25 +6229,25 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>918.6120443066563</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L26" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2729.126786889237</v>
+        <v>1963.20443028588</v>
       </c>
       <c r="N26" t="n">
-        <v>3628.004506520298</v>
+        <v>2925.53384571452</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3789.04658642367</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4488.360349638067</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4726.102261660401</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6257,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6305,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K27" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L27" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M27" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439724</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1023.935571205723</v>
+        <v>760.0422977032447</v>
       </c>
       <c r="C28" t="n">
-        <v>854.9993882778166</v>
+        <v>591.1061147753378</v>
       </c>
       <c r="D28" t="n">
-        <v>704.8827488654808</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="E28" t="n">
-        <v>556.9696552830877</v>
+        <v>509.0247406537912</v>
       </c>
       <c r="F28" t="n">
-        <v>410.0797077851773</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G28" t="n">
-        <v>242.3321821269216</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H28" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
@@ -6409,25 +6411,25 @@
         <v>1821.238811302083</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.774119163341</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T28" t="n">
-        <v>1495.001206072924</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="U28" t="n">
-        <v>1495.001206072924</v>
+        <v>1532.13350684411</v>
       </c>
       <c r="V28" t="n">
-        <v>1495.001206072924</v>
+        <v>1277.449018638223</v>
       </c>
       <c r="W28" t="n">
-        <v>1205.584036035963</v>
+        <v>988.031848601262</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.584036035963</v>
+        <v>760.0422977032447</v>
       </c>
       <c r="Y28" t="n">
-        <v>1205.584036035963</v>
+        <v>760.0422977032447</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6461,19 +6463,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K29" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1327.278034693952</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M29" t="n">
-        <v>2288.68291164154</v>
+        <v>2896.53243590959</v>
       </c>
       <c r="N29" t="n">
-        <v>3251.01232707018</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O29" t="n">
         <v>4114.52506777933</v>
@@ -6494,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.1204990237127</v>
+        <v>656.8279108351232</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1843160958058</v>
+        <v>487.8917279072164</v>
       </c>
       <c r="D31" t="n">
-        <v>260.06767668347</v>
+        <v>487.8917279072164</v>
       </c>
       <c r="E31" t="n">
-        <v>112.1545831010769</v>
+        <v>487.8917279072164</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G31" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H31" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6646,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353473</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.5510938955</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.5510938955</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.5510938955</v>
+        <v>1287.25850570691</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5615429974825</v>
+        <v>1059.268954808893</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7689638539524</v>
+        <v>838.476375665363</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
         <v>440.1593205155743</v>
@@ -6704,22 +6706,22 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1639.210958469817</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M32" t="n">
-        <v>2600.615835417405</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N32" t="n">
-        <v>3562.945250846045</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O32" t="n">
-        <v>4049.465812105077</v>
+        <v>3844.382738721612</v>
       </c>
       <c r="P32" t="n">
-        <v>4430.198854229707</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6731,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>414.2869325418659</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P33" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1122.605169488108</v>
+        <v>3827.662454619218</v>
       </c>
       <c r="C34" t="n">
-        <v>953.668986560201</v>
+        <v>3658.726271691311</v>
       </c>
       <c r="D34" t="n">
-        <v>803.5523471478652</v>
+        <v>3508.609632278975</v>
       </c>
       <c r="E34" t="n">
-        <v>655.6392535654721</v>
+        <v>3360.696538696582</v>
       </c>
       <c r="F34" t="n">
-        <v>508.7493060675617</v>
+        <v>3213.806591198672</v>
       </c>
       <c r="G34" t="n">
-        <v>341.001780409306</v>
+        <v>3213.806591198672</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>3067.192078286991</v>
       </c>
       <c r="I34" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720289</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K34" t="n">
-        <v>336.642113073884</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150417</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M34" t="n">
-        <v>983.98132772395</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O34" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.13598320328</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302083</v>
+        <v>4694.043622091449</v>
       </c>
       <c r="S34" t="n">
-        <v>1821.238811302083</v>
+        <v>4501.578929952707</v>
       </c>
       <c r="T34" t="n">
-        <v>1821.238811302083</v>
+        <v>4310.336493723122</v>
       </c>
       <c r="U34" t="n">
-        <v>1821.238811302083</v>
+        <v>4310.336493723122</v>
       </c>
       <c r="V34" t="n">
-        <v>1566.554323096196</v>
+        <v>4055.652005517235</v>
       </c>
       <c r="W34" t="n">
-        <v>1277.137153059235</v>
+        <v>4055.652005517235</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.137153059235</v>
+        <v>3827.662454619218</v>
       </c>
       <c r="Y34" t="n">
-        <v>1277.137153059235</v>
+        <v>3827.662454619218</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
         <v>1266.317301993267</v>
@@ -6938,25 +6940,25 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K35" t="n">
-        <v>855.1603485090766</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L35" t="n">
-        <v>1704.27021414407</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M35" t="n">
-        <v>2665.675091091658</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N35" t="n">
-        <v>3628.004506520298</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -6968,19 +6970,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V35" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7028,13 @@
         <v>1203.680327106303</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524075</v>
+        <v>342.3003610800183</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>342.3003610800183</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>342.3003610800183</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7117,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.5510938955</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V37" t="n">
-        <v>954.866605689613</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W37" t="n">
-        <v>665.4494356526525</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X37" t="n">
-        <v>437.4598847546351</v>
+        <v>345.6200460840466</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.667305611105</v>
+        <v>342.3003610800183</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7159,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7181,16 +7183,16 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.222828443784</v>
+        <v>1963.20443028588</v>
       </c>
       <c r="N38" t="n">
-        <v>3370.552243872425</v>
+        <v>2722.239765227106</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>3585.752505936256</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q38" t="n">
         <v>4733.000021926293</v>
@@ -7208,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7269,7 +7271,7 @@
         <v>2062.14661647041</v>
       </c>
       <c r="P39" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>227.4835329196067</v>
+        <v>3808.55573560505</v>
       </c>
       <c r="C40" t="n">
-        <v>227.4835329196067</v>
+        <v>3639.619552677143</v>
       </c>
       <c r="D40" t="n">
-        <v>95.71766921524075</v>
+        <v>3489.502913264807</v>
       </c>
       <c r="E40" t="n">
-        <v>95.71766921524075</v>
+        <v>3341.589819682414</v>
       </c>
       <c r="F40" t="n">
-        <v>95.71766921524075</v>
+        <v>3194.699872184504</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>3026.952346526248</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720289</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K40" t="n">
-        <v>336.642113073884</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150417</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M40" t="n">
-        <v>983.98132772395</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O40" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.13598320328</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>4694.043622091449</v>
       </c>
       <c r="S40" t="n">
-        <v>1913.078649972671</v>
+        <v>4501.578929952707</v>
       </c>
       <c r="T40" t="n">
-        <v>1691.121090492215</v>
+        <v>4279.62137047225</v>
       </c>
       <c r="U40" t="n">
-        <v>1402.015786034242</v>
+        <v>4279.62137047225</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.331297828355</v>
+        <v>4279.62137047225</v>
       </c>
       <c r="W40" t="n">
-        <v>857.9141277913939</v>
+        <v>3990.20420043529</v>
       </c>
       <c r="X40" t="n">
-        <v>629.9245768933765</v>
+        <v>3990.20420043529</v>
       </c>
       <c r="Y40" t="n">
-        <v>409.1319977498464</v>
+        <v>3990.20420043529</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7415,13 +7417,13 @@
         <v>918.6120443066563</v>
       </c>
       <c r="L41" t="n">
-        <v>1767.721909941649</v>
+        <v>1760.251489861816</v>
       </c>
       <c r="M41" t="n">
-        <v>2729.126786889237</v>
+        <v>2721.656366809404</v>
       </c>
       <c r="N41" t="n">
-        <v>3258.482747150014</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O41" t="n">
         <v>4114.52506777933</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>953.668986560201</v>
+        <v>513.4400898378677</v>
       </c>
       <c r="C43" t="n">
-        <v>953.668986560201</v>
+        <v>344.5039069099608</v>
       </c>
       <c r="D43" t="n">
-        <v>803.5523471478652</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="E43" t="n">
-        <v>655.6392535654721</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F43" t="n">
-        <v>508.7493060675617</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G43" t="n">
-        <v>341.001780409306</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H43" t="n">
         <v>194.3872674976251</v>
@@ -7591,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T43" t="n">
-        <v>1691.121090492215</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U43" t="n">
-        <v>1402.015786034242</v>
+        <v>1459.982792054485</v>
       </c>
       <c r="V43" t="n">
-        <v>1402.015786034242</v>
+        <v>1205.298303848598</v>
       </c>
       <c r="W43" t="n">
-        <v>1112.598615997281</v>
+        <v>915.8811338116376</v>
       </c>
       <c r="X43" t="n">
-        <v>1112.598615997281</v>
+        <v>915.8811338116376</v>
       </c>
       <c r="Y43" t="n">
-        <v>1112.598615997281</v>
+        <v>695.0885546681075</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7630,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
         <v>1266.317301993267</v>
@@ -7646,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443784</v>
+        <v>2483.047833504645</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872425</v>
+        <v>3040.820486316874</v>
       </c>
       <c r="O44" t="n">
-        <v>4049.465812105077</v>
+        <v>3904.333227026024</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.198854229707</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7682,13 +7684,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y44" t="n">
         <v>2765.933610202796</v>
@@ -7743,7 +7745,7 @@
         <v>2062.14661647041</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>531.0709760837877</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="C46" t="n">
-        <v>362.1347931558809</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="D46" t="n">
-        <v>362.1347931558809</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E46" t="n">
-        <v>362.1347931558809</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F46" t="n">
-        <v>362.1347931558809</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G46" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H46" t="n">
         <v>194.3872674976251</v>
@@ -7834,22 +7836,22 @@
         <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1406.816559682885</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U46" t="n">
-        <v>1117.711255224911</v>
+        <v>1339.668814705368</v>
       </c>
       <c r="V46" t="n">
-        <v>1002.136610950988</v>
+        <v>1339.668814705368</v>
       </c>
       <c r="W46" t="n">
-        <v>712.7194409140275</v>
+        <v>1339.668814705368</v>
       </c>
       <c r="X46" t="n">
-        <v>712.7194409140275</v>
+        <v>1205.993391121635</v>
       </c>
       <c r="Y46" t="n">
-        <v>712.7194409140275</v>
+        <v>985.200811978105</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8699,19 +8701,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>194.3363706804249</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>316.5995337026455</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>32.4998215484714</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990438</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061594</v>
       </c>
       <c r="P14" t="n">
-        <v>296.9138238411119</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>206.5043916218343</v>
       </c>
       <c r="P17" t="n">
-        <v>4.620730212329647</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>74.60209794880245</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534074</v>
+        <v>173.1059208151701</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.60209794880245</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9641,22 +9643,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>212.3136585025571</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>373.2543023942267</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.967434612012021</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>74.6020979488024</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>296.9138238411126</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>204.1576872221531</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R30" t="n">
         <v>3.419393410990438</v>
@@ -10352,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>118.755557487637</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>60.55604879233533</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>74.6020979488024</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>3.419393410990438</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.0527905534074</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>194.3363706804249</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R36" t="n">
         <v>3.419393410990438</v>
@@ -10829,19 +10831,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>231.9993683640909</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>3.419393410990438</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>410.115335681932</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>373.2543023942264</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>28.70372984995265</v>
       </c>
       <c r="O44" t="n">
-        <v>194.3363706804249</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R45" t="n">
         <v>3.419393410990438</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>77.8272892320519</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.90097600017677</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>36.79861603130558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.25045447929811</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>47.26773204264759</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>60.0918401500318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>84.15659537898078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956054</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.09184015003191</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>85.87291693942919</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>47.50668106672222</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.35491263788127</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>87.3027999261389</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>129.1485032759534</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>205.3129502507093</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.84531644652131</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>30.4079720183629</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.09184015003166</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>215.2981651981067</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>18.16726795089011</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>87.30279992613887</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956054</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.49164703922827</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>119.1108375756259</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>137.718745492644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>93.37098604114155</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756443.508133143</v>
+        <v>756443.5081331432</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756443.508133143</v>
+        <v>756443.5081331431</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756443.508133143</v>
+        <v>756443.5081331431</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756443.508133143</v>
+        <v>756443.5081331432</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756443.508133143</v>
+        <v>756443.5081331432</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756443.508133143</v>
+        <v>756443.5081331431</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756443.508133143</v>
+        <v>756443.5081331431</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>654240.3484050935</v>
+        <v>654240.3484050934</v>
       </c>
       <c r="F2" t="n">
         <v>654240.3484050934</v>
       </c>
       <c r="G2" t="n">
-        <v>654240.3484050935</v>
+        <v>654240.3484050937</v>
       </c>
       <c r="H2" t="n">
-        <v>654240.3484050937</v>
+        <v>654240.3484050934</v>
       </c>
       <c r="I2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050932</v>
       </c>
       <c r="J2" t="n">
         <v>654240.3484050934</v>
       </c>
       <c r="K2" t="n">
-        <v>654240.3484050935</v>
+        <v>654240.3484050937</v>
       </c>
       <c r="L2" t="n">
         <v>654240.3484050934</v>
       </c>
       <c r="M2" t="n">
-        <v>654240.3484050937</v>
+        <v>654240.3484050934</v>
       </c>
       <c r="N2" t="n">
+        <v>654240.3484050934</v>
+      </c>
+      <c r="O2" t="n">
         <v>654240.3484050935</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>654240.3484050934</v>
-      </c>
-      <c r="P2" t="n">
-        <v>654240.3484050933</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>23693.12563581159</v>
+      </c>
+      <c r="F4" t="n">
         <v>23693.1256358116</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23693.12563581159</v>
       </c>
       <c r="G4" t="n">
         <v>23693.12563581159</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="J4" t="n">
         <v>23693.1256358116</v>
@@ -26445,19 +26447,19 @@
         <v>23693.1256358116</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="M4" t="n">
         <v>23693.1256358116</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581159</v>
       </c>
       <c r="O4" t="n">
         <v>23693.1256358116</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581159</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323501</v>
+        <v>-187674.0935323504</v>
       </c>
       <c r="C6" t="n">
         <v>402293.7856821943</v>
       </c>
       <c r="D6" t="n">
-        <v>402293.7856821941</v>
+        <v>402293.7856821942</v>
       </c>
       <c r="E6" t="n">
-        <v>-173671.5873746156</v>
+        <v>-173671.5873746157</v>
       </c>
       <c r="F6" t="n">
         <v>534579.5093772126</v>
       </c>
       <c r="G6" t="n">
-        <v>534579.5093772127</v>
+        <v>534579.5093772128</v>
       </c>
       <c r="H6" t="n">
-        <v>534579.5093772128</v>
+        <v>534579.5093772126</v>
       </c>
       <c r="I6" t="n">
-        <v>534579.5093772126</v>
+        <v>534579.5093772124</v>
       </c>
       <c r="J6" t="n">
         <v>358156.2901846197</v>
       </c>
       <c r="K6" t="n">
-        <v>534579.5093772127</v>
+        <v>534579.5093772128</v>
       </c>
       <c r="L6" t="n">
         <v>534579.5093772126</v>
       </c>
       <c r="M6" t="n">
-        <v>404449.2694078034</v>
+        <v>404449.2694078032</v>
       </c>
       <c r="N6" t="n">
+        <v>534579.5093772126</v>
+      </c>
+      <c r="O6" t="n">
         <v>534579.5093772127</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>534579.5093772126</v>
-      </c>
-      <c r="P6" t="n">
-        <v>534579.5093772125</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>155.9906181052637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>343.8352489486665</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>68.0306271174702</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>71.21505670702103</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>120.9723092250571</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>47.00444123328205</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>217.8965147742257</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>86.52001460662564</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>25.92321192564621</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35419,19 +35421,19 @@
         <v>971.116037320796</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O11" t="n">
-        <v>685.7712810430836</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P11" t="n">
-        <v>384.5788304289184</v>
+        <v>701.1783641315639</v>
       </c>
       <c r="Q11" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>89.63772240239248</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709662</v>
+        <v>264.6492338194376</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
@@ -35504,13 +35506,13 @@
         <v>402.5566389383721</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106823</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>42.10227640033038</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M14" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O14" t="n">
-        <v>872.235091625404</v>
+        <v>545.2760123732746</v>
       </c>
       <c r="P14" t="n">
-        <v>681.4926542700302</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R14" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>438.4230857901372</v>
       </c>
       <c r="N15" t="n">
-        <v>539.1831250347803</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O15" t="n">
         <v>402.5566389383721</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106823</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L17" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279635</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O17" t="n">
-        <v>872.235091625404</v>
+        <v>697.939301984493</v>
       </c>
       <c r="P17" t="n">
-        <v>389.199560641248</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q17" t="n">
         <v>240.143345477105</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709662</v>
+        <v>306.7515102197686</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
@@ -36121,25 +36123,25 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K20" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L20" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M20" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N20" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O20" t="n">
-        <v>751.487700916066</v>
+        <v>664.5408311778287</v>
       </c>
       <c r="P20" t="n">
         <v>384.5788304289184</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R20" t="n">
         <v>53.41761498560015</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709662</v>
+        <v>306.7515102197686</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
@@ -36361,22 +36363,22 @@
         <v>324.6451466339471</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M23" t="n">
-        <v>971.116037320796</v>
+        <v>733.9161623305206</v>
       </c>
       <c r="N23" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O23" t="n">
-        <v>751.487700916066</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R23" t="n">
         <v>53.41761498560015</v>
@@ -36595,28 +36597,28 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L26" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M26" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N26" t="n">
-        <v>907.957292556627</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O26" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q26" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498560015</v>
+        <v>60.38504959761217</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709662</v>
@@ -36686,7 +36688,7 @@
         <v>464.5810270859781</v>
       </c>
       <c r="O27" t="n">
-        <v>477.1587368871745</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P27" t="n">
         <v>303.5588430275572</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K29" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>736.9393422553014</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M29" t="n">
         <v>971.116037320796</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743844</v>
+        <v>738.8606773845534</v>
       </c>
       <c r="O29" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P29" t="n">
         <v>384.5788304289184</v>
@@ -36911,7 +36913,7 @@
         <v>89.63772240239248</v>
       </c>
       <c r="K30" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
@@ -36929,7 +36931,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L32" t="n">
-        <v>558.7810759018258</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O32" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289184</v>
+        <v>445.1348792212537</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264659</v>
+        <v>433.5460773752683</v>
       </c>
       <c r="M33" t="n">
         <v>438.4230857901372</v>
@@ -37166,7 +37168,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K35" t="n">
-        <v>584.6979371873546</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L35" t="n">
         <v>857.6867329646393</v>
@@ -37318,7 +37320,7 @@
         <v>972.0499145743844</v>
       </c>
       <c r="O35" t="n">
-        <v>491.4349103626587</v>
+        <v>685.7712810430836</v>
       </c>
       <c r="P35" t="n">
         <v>384.5788304289184</v>
@@ -37327,7 +37329,7 @@
         <v>240.143345477105</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>438.4230857901372</v>
       </c>
       <c r="N36" t="n">
-        <v>539.1831250347803</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O36" t="n">
         <v>402.5566389383721</v>
@@ -37403,7 +37405,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,19 +37551,19 @@
         <v>857.6867329646393</v>
       </c>
       <c r="M38" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743844</v>
+        <v>766.7023585264911</v>
       </c>
       <c r="O38" t="n">
-        <v>751.487700916066</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R38" t="n">
         <v>53.41761498560015</v>
@@ -37637,10 +37639,10 @@
         <v>402.5566389383721</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646393</v>
+        <v>850.1408540961208</v>
       </c>
       <c r="M41" t="n">
         <v>971.116037320796</v>
@@ -37792,7 +37794,7 @@
         <v>534.7029901624003</v>
       </c>
       <c r="O41" t="n">
-        <v>864.6892127568851</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P41" t="n">
         <v>384.5788304289184</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M44" t="n">
         <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743844</v>
+        <v>563.4067200123529</v>
       </c>
       <c r="O44" t="n">
-        <v>685.7712810430836</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P44" t="n">
         <v>384.5788304289184</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>402.5566389383721</v>
       </c>
       <c r="P45" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2961367.284770917</v>
+        <v>2955523.149765789</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256419</v>
+        <v>6239134.53325642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069176</v>
+        <v>840694.9721069172</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.5639460635047</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>42.40268970738709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>78.55741663186701</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>157.0044783406141</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>5.98338819131895</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>228.2686594923559</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>54.6552011971116</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>327.2641554141694</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>329.2630261709932</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040295</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>96.64685383543313</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>97.68290229956054</v>
@@ -1581,7 +1581,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.683677351918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>119.7401400319059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.36501853891424</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>101.3477409755648</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>28.81869974802325</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2061,7 +2061,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T20" t="n">
         <v>204.3497241367009</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>83.09022571964705</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>74.69637495512308</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2295,7 +2295,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>37.79100007178276</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>166.2647263843988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>81.26056038033109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388265</v>
+        <v>29.96873044403271</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.4482050673225</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>81.21004808588174</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673225</v>
       </c>
       <c r="T34" t="n">
-        <v>189.3300118672892</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>228.4633754320881</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.286488153988088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U38" t="n">
         <v>251.0030623803221</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.84556785642513</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
@@ -3717,19 +3717,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>12.05885055549422</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>17.89950045769158</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>167.1034138377676</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.0203559212046</v>
@@ -3997,7 +3997,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040303</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030164</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.86931745267351</v>
       </c>
       <c r="U46" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>132.3386693478956</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.22335213854</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1696.823192202662</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>291.042280278609</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>291.042280278609</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>569.538602044198</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>569.538602044198</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>569.538602044198</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>569.538602044198</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>569.538602044198</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>80.85571308685473</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>80.85571308685473</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>73.91021233765126</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>59.98680827624217</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>59.98680827624217</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>1762.972057945408</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.972057945408</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y5" t="n">
-        <v>1762.972057945408</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4637,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1502557568408</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1502557568408</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.927233509</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>948.9647165685888</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>948.9647165685888</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>948.9647165685888</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>537.9788117789813</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791649</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K11" t="n">
-        <v>597.7080858612032</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L11" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693951</v>
       </c>
       <c r="M11" t="n">
-        <v>2408.222828443784</v>
+        <v>2288.682911641539</v>
       </c>
       <c r="N11" t="n">
-        <v>2937.578788704561</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O11" t="n">
-        <v>3801.091529413711</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
         <v>4495.258109903959</v>
@@ -5120,28 +5120,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K12" t="n">
-        <v>446.4617558748525</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L12" t="n">
-        <v>801.8162955070538</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M12" t="n">
-        <v>1235.85515043929</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N12" t="n">
-        <v>1695.790367254408</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.321439803397</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P12" t="n">
-        <v>2394.844694400678</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q12" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R12" t="n">
         <v>2587.498588679581</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.2133979234424</v>
+        <v>341.001780409306</v>
       </c>
       <c r="C13" t="n">
-        <v>341.2772149955355</v>
+        <v>341.001780409306</v>
       </c>
       <c r="D13" t="n">
-        <v>341.2772149955355</v>
+        <v>341.001780409306</v>
       </c>
       <c r="E13" t="n">
-        <v>341.2772149955355</v>
+        <v>341.001780409306</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G13" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H13" t="n">
         <v>194.3872674976251</v>
@@ -5205,10 +5205,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M13" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5220,31 +5220,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q13" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S13" t="n">
         <v>1720.61395783393</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.656398353473</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.5510938955</v>
+        <v>1431.508653375957</v>
       </c>
       <c r="V13" t="n">
-        <v>954.866605689613</v>
+        <v>1176.82416517007</v>
       </c>
       <c r="W13" t="n">
-        <v>665.4494356526525</v>
+        <v>887.4069951331091</v>
       </c>
       <c r="X13" t="n">
-        <v>665.4494356526525</v>
+        <v>659.4174442350918</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.2133979234424</v>
+        <v>438.6248650915617</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5281,16 +5281,16 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.017693327009</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L14" t="n">
-        <v>1935.127558962002</v>
+        <v>1521.642956557057</v>
       </c>
       <c r="M14" t="n">
-        <v>2451.514037751686</v>
+        <v>2038.029435346741</v>
       </c>
       <c r="N14" t="n">
-        <v>2980.869998012462</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O14" t="n">
         <v>3520.693250262004</v>
@@ -5320,7 +5320,7 @@
         <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5357,25 +5357,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574.7745773189903</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C16" t="n">
-        <v>574.7745773189903</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D16" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E16" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F16" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5442,10 +5442,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M16" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5457,31 +5457,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q16" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T16" t="n">
-        <v>1628.774119163341</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U16" t="n">
-        <v>1339.668814705368</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V16" t="n">
-        <v>1084.984326499481</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="W16" t="n">
-        <v>795.5671564625204</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="X16" t="n">
-        <v>795.5671564625204</v>
+        <v>437.4598847546354</v>
       </c>
       <c r="Y16" t="n">
-        <v>574.7745773189903</v>
+        <v>216.6673056111053</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155743</v>
@@ -5518,25 +5518,25 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K17" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.223600516549</v>
+        <v>1935.127558962003</v>
       </c>
       <c r="M17" t="n">
-        <v>2575.628477464137</v>
+        <v>2451.514037751687</v>
       </c>
       <c r="N17" t="n">
-        <v>3104.984437724914</v>
+        <v>3413.843453180328</v>
       </c>
       <c r="O17" t="n">
-        <v>3795.944346689562</v>
+        <v>3900.36401443936</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4281.097056563989</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5548,19 +5548,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M18" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O18" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>611.1207615984353</v>
+        <v>124.8274669405168</v>
       </c>
       <c r="C19" t="n">
-        <v>611.1207615984353</v>
+        <v>124.8274669405168</v>
       </c>
       <c r="D19" t="n">
-        <v>508.7493060675617</v>
+        <v>124.8274669405168</v>
       </c>
       <c r="E19" t="n">
-        <v>508.7493060675617</v>
+        <v>124.8274669405168</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>124.8274669405168</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>124.8274669405168</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>124.8274669405168</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5679,10 +5679,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M19" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5694,31 +5694,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R19" t="n">
         <v>1821.238811302083</v>
       </c>
       <c r="S19" t="n">
-        <v>1821.238811302083</v>
+        <v>1628.774119163342</v>
       </c>
       <c r="T19" t="n">
-        <v>1599.281251821626</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U19" t="n">
-        <v>1310.175947363653</v>
+        <v>1117.711255224912</v>
       </c>
       <c r="V19" t="n">
-        <v>1310.175947363653</v>
+        <v>863.0267670190248</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.758777326692</v>
+        <v>573.6095969820642</v>
       </c>
       <c r="X19" t="n">
-        <v>792.769226428675</v>
+        <v>345.6200460840469</v>
       </c>
       <c r="Y19" t="n">
-        <v>792.769226428675</v>
+        <v>124.8274669405168</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>440.1593205155742</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K20" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L20" t="n">
-        <v>1767.721909941649</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M20" t="n">
-        <v>2284.108388731333</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N20" t="n">
-        <v>3246.437804159973</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O20" t="n">
-        <v>3904.333227026024</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5834,22 +5834,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111803</v>
+        <v>414.286932541866</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740674</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106304</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921422</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.146616470411</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.9223222965069</v>
+        <v>171.1685530082944</v>
       </c>
       <c r="C22" t="n">
-        <v>557.9928013675705</v>
+        <v>171.1685530082944</v>
       </c>
       <c r="D22" t="n">
-        <v>557.9928013675705</v>
+        <v>171.1685530082944</v>
       </c>
       <c r="E22" t="n">
-        <v>410.0797077851773</v>
+        <v>171.1685530082944</v>
       </c>
       <c r="F22" t="n">
-        <v>410.0797077851773</v>
+        <v>171.1685530082944</v>
       </c>
       <c r="G22" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5916,10 +5916,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M22" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5931,31 +5931,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R22" t="n">
         <v>1821.238811302083</v>
       </c>
       <c r="S22" t="n">
-        <v>1628.774119163341</v>
+        <v>1628.774119163342</v>
       </c>
       <c r="T22" t="n">
         <v>1406.816559682885</v>
       </c>
       <c r="U22" t="n">
-        <v>1406.816559682885</v>
+        <v>1117.711255224912</v>
       </c>
       <c r="V22" t="n">
-        <v>1152.132071476998</v>
+        <v>863.0267670190248</v>
       </c>
       <c r="W22" t="n">
-        <v>862.714901440037</v>
+        <v>573.6095969820642</v>
       </c>
       <c r="X22" t="n">
-        <v>862.714901440037</v>
+        <v>573.6095969820642</v>
       </c>
       <c r="Y22" t="n">
-        <v>641.9223222965069</v>
+        <v>352.8170178385341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E23" t="n">
         <v>1266.317301993267</v>
@@ -5989,25 +5989,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.01769332701</v>
       </c>
       <c r="L23" t="n">
-        <v>1033.33334909125</v>
+        <v>1935.127558962003</v>
       </c>
       <c r="M23" t="n">
-        <v>1759.910349798466</v>
+        <v>2896.532435909591</v>
       </c>
       <c r="N23" t="n">
-        <v>2722.239765227106</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O23" t="n">
-        <v>3585.752505936256</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
         <v>4733.000021926293</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111803</v>
+        <v>414.286932541866</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M24" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825.5985825778617</v>
+        <v>449.4410924000636</v>
       </c>
       <c r="C25" t="n">
-        <v>656.6623996499549</v>
+        <v>280.5049094721567</v>
       </c>
       <c r="D25" t="n">
-        <v>656.6623996499549</v>
+        <v>280.5049094721567</v>
       </c>
       <c r="E25" t="n">
-        <v>508.7493060675617</v>
+        <v>280.5049094721567</v>
       </c>
       <c r="F25" t="n">
-        <v>508.7493060675617</v>
+        <v>280.5049094721567</v>
       </c>
       <c r="G25" t="n">
-        <v>341.001780409306</v>
+        <v>280.5049094721567</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976251</v>
+        <v>133.8903965604759</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6153,10 +6153,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M25" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6168,31 +6168,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="T25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="U25" t="n">
         <v>1623.973345514698</v>
       </c>
       <c r="V25" t="n">
-        <v>1456.029177449649</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W25" t="n">
-        <v>1456.029177449649</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X25" t="n">
-        <v>1228.039626551631</v>
+        <v>851.8821363738334</v>
       </c>
       <c r="Y25" t="n">
-        <v>1007.247047408101</v>
+        <v>631.0895572303033</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612032</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L26" t="n">
         <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>1963.20443028588</v>
+        <v>2408.222828443785</v>
       </c>
       <c r="N26" t="n">
-        <v>2925.53384571452</v>
+        <v>3370.552243872426</v>
       </c>
       <c r="O26" t="n">
-        <v>3789.04658642367</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4488.360349638067</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4726.102261660401</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6305,25 +6305,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M27" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.0422977032447</v>
+        <v>708.2749519650746</v>
       </c>
       <c r="C28" t="n">
-        <v>591.1061147753378</v>
+        <v>539.3387690371677</v>
       </c>
       <c r="D28" t="n">
-        <v>509.0247406537912</v>
+        <v>389.222129624832</v>
       </c>
       <c r="E28" t="n">
-        <v>509.0247406537912</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F28" t="n">
-        <v>362.1347931558809</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G28" t="n">
-        <v>194.3872674976251</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H28" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
@@ -6390,10 +6390,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M28" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6405,31 +6405,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302083</v>
+        <v>1882.807205079709</v>
       </c>
       <c r="S28" t="n">
-        <v>1821.238811302083</v>
+        <v>1882.807205079709</v>
       </c>
       <c r="T28" t="n">
-        <v>1821.238811302083</v>
+        <v>1882.807205079709</v>
       </c>
       <c r="U28" t="n">
-        <v>1532.13350684411</v>
+        <v>1882.807205079709</v>
       </c>
       <c r="V28" t="n">
-        <v>1277.449018638223</v>
+        <v>1628.122716873822</v>
       </c>
       <c r="W28" t="n">
-        <v>988.031848601262</v>
+        <v>1338.705546836862</v>
       </c>
       <c r="X28" t="n">
-        <v>760.0422977032447</v>
+        <v>1110.715995938844</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.0422977032447</v>
+        <v>889.9234167953143</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6463,19 +6463,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K29" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L29" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M29" t="n">
-        <v>2896.53243590959</v>
+        <v>2408.222828443785</v>
       </c>
       <c r="N29" t="n">
-        <v>3628.004506520298</v>
+        <v>3370.552243872426</v>
       </c>
       <c r="O29" t="n">
         <v>4114.52506777933</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418659</v>
+        <v>414.286932541866</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740672</v>
+        <v>769.6414721740674</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106303</v>
+        <v>1203.680327106304</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1663.615543921422</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.14661647041</v>
+        <v>2062.146616470411</v>
       </c>
       <c r="P30" t="n">
-        <v>2362.669871067691</v>
+        <v>2362.669871067692</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.8279108351232</v>
+        <v>227.4835329196069</v>
       </c>
       <c r="C31" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6627,10 +6627,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M31" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6642,31 +6642,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q31" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S31" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="T31" t="n">
-        <v>1913.078649972671</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U31" t="n">
-        <v>1623.973345514698</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V31" t="n">
-        <v>1369.288857308811</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W31" t="n">
-        <v>1287.25850570691</v>
+        <v>857.9141277913941</v>
       </c>
       <c r="X31" t="n">
-        <v>1059.268954808893</v>
+        <v>629.9245768933768</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.476375665363</v>
+        <v>409.1319977498466</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G32" t="n">
         <v>440.1593205155743</v>
@@ -6700,25 +6700,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K32" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L32" t="n">
-        <v>1935.127558962002</v>
+        <v>1327.278034693951</v>
       </c>
       <c r="M32" t="n">
-        <v>2451.514037751686</v>
+        <v>2288.682911641539</v>
       </c>
       <c r="N32" t="n">
-        <v>2980.869998012462</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O32" t="n">
-        <v>3844.382738721612</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
         <v>4733.000021926293</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M33" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037006</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3827.662454619218</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>3658.726271691311</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>3508.609632278975</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>3360.696538696582</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K34" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M34" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N34" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O34" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R34" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S34" t="n">
-        <v>4501.578929952707</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T34" t="n">
-        <v>4310.336493723122</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>4310.336493723122</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>4055.652005517235</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>4055.652005517235</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>3827.662454619218</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>3827.662454619218</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612032</v>
+        <v>918.6120443066565</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.72190994165</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443784</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872425</v>
+        <v>2813.46434899211</v>
       </c>
       <c r="O35" t="n">
-        <v>4049.465812105077</v>
+        <v>3676.97708970126</v>
       </c>
       <c r="P35" t="n">
-        <v>4430.198854229707</v>
+        <v>4376.290852915657</v>
       </c>
       <c r="Q35" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -6976,10 +6976,10 @@
         <v>3882.307355709801</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y35" t="n">
         <v>2765.933610202796</v>
@@ -7016,25 +7016,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L36" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O36" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P36" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>342.3003610800183</v>
+        <v>414.7704915554834</v>
       </c>
       <c r="C37" t="n">
-        <v>342.3003610800183</v>
+        <v>245.8343086275765</v>
       </c>
       <c r="D37" t="n">
-        <v>342.3003610800183</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7101,10 +7101,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M37" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7116,31 +7116,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R37" t="n">
         <v>1821.238811302083</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.774119163341</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T37" t="n">
-        <v>1406.816559682885</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="U37" t="n">
-        <v>1117.711255224911</v>
+        <v>1368.510165526588</v>
       </c>
       <c r="V37" t="n">
-        <v>863.0267670190245</v>
+        <v>1113.825677320701</v>
       </c>
       <c r="W37" t="n">
-        <v>573.609596982064</v>
+        <v>824.4085072837405</v>
       </c>
       <c r="X37" t="n">
-        <v>345.6200460840466</v>
+        <v>596.4189563857232</v>
       </c>
       <c r="Y37" t="n">
-        <v>342.3003610800183</v>
+        <v>596.4189563857232</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,25 +7174,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K38" t="n">
-        <v>597.7080858612032</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693951</v>
       </c>
       <c r="M38" t="n">
-        <v>1963.20443028588</v>
+        <v>2288.682911641539</v>
       </c>
       <c r="N38" t="n">
-        <v>2722.239765227106</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O38" t="n">
-        <v>3585.752505936256</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P38" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
         <v>4733.000021926293</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7256,22 +7256,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418659</v>
+        <v>414.286932541866</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740672</v>
+        <v>769.6414721740674</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.680327106303</v>
+        <v>1203.680327106304</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.615543921421</v>
+        <v>1663.615543921422</v>
       </c>
       <c r="O39" t="n">
-        <v>2062.14661647041</v>
+        <v>2062.146616470411</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067692</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3808.55573560505</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="C40" t="n">
-        <v>3639.619552677143</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="D40" t="n">
-        <v>3489.502913264807</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E40" t="n">
-        <v>3341.589819682414</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>3194.699872184504</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>3026.952346526248</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K40" t="n">
-        <v>3209.44692386325</v>
+        <v>336.642113073884</v>
       </c>
       <c r="L40" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M40" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N40" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O40" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.13598320328</v>
       </c>
       <c r="Q40" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R40" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S40" t="n">
-        <v>4501.578929952707</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T40" t="n">
-        <v>4279.62137047225</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U40" t="n">
-        <v>4279.62137047225</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V40" t="n">
-        <v>4279.62137047225</v>
+        <v>954.8666056896133</v>
       </c>
       <c r="W40" t="n">
-        <v>3990.20420043529</v>
+        <v>665.4494356526527</v>
       </c>
       <c r="X40" t="n">
-        <v>3990.20420043529</v>
+        <v>437.4598847546354</v>
       </c>
       <c r="Y40" t="n">
-        <v>3990.20420043529</v>
+        <v>425.2792276278735</v>
       </c>
     </row>
     <row r="41">
@@ -7402,25 +7402,25 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K41" t="n">
-        <v>918.6120443066563</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L41" t="n">
-        <v>1760.251489861816</v>
+        <v>1327.278034693951</v>
       </c>
       <c r="M41" t="n">
-        <v>2721.656366809404</v>
+        <v>2288.682911641539</v>
       </c>
       <c r="N41" t="n">
         <v>3251.01232707018</v>
@@ -7493,22 +7493,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418659</v>
+        <v>414.286932541866</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740672</v>
+        <v>769.6414721740674</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106303</v>
+        <v>1203.680327106304</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921422</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.146616470411</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.669871067692</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.4400898378677</v>
+        <v>661.3531834202608</v>
       </c>
       <c r="C43" t="n">
-        <v>344.5039069099608</v>
+        <v>492.417000492354</v>
       </c>
       <c r="D43" t="n">
-        <v>194.3872674976251</v>
+        <v>342.3003610800183</v>
       </c>
       <c r="E43" t="n">
         <v>194.3872674976251</v>
@@ -7575,10 +7575,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M43" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7590,31 +7590,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R43" t="n">
         <v>1821.238811302083</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1803.158507809465</v>
       </c>
       <c r="T43" t="n">
-        <v>1628.774119163341</v>
+        <v>1581.200948329009</v>
       </c>
       <c r="U43" t="n">
-        <v>1459.982792054485</v>
+        <v>1581.200948329009</v>
       </c>
       <c r="V43" t="n">
-        <v>1205.298303848598</v>
+        <v>1581.200948329009</v>
       </c>
       <c r="W43" t="n">
-        <v>915.8811338116376</v>
+        <v>1291.783778292048</v>
       </c>
       <c r="X43" t="n">
-        <v>915.8811338116376</v>
+        <v>1063.794227394031</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.0885546681075</v>
+        <v>843.0016482505006</v>
       </c>
     </row>
     <row r="44">
@@ -7630,43 +7630,43 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
         <v>440.1593205155743</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935956</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612034</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2483.047833504645</v>
+        <v>2408.222828443785</v>
       </c>
       <c r="N44" t="n">
-        <v>3040.820486316874</v>
+        <v>3370.552243872426</v>
       </c>
       <c r="O44" t="n">
-        <v>3904.333227026024</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P44" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q44" t="n">
         <v>4733.000021926293</v>
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629225</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111792</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433806</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890735</v>
       </c>
       <c r="O45" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P45" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037005</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.5523471478652</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C46" t="n">
-        <v>803.5523471478652</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D46" t="n">
-        <v>803.5523471478652</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E46" t="n">
-        <v>655.6392535654721</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F46" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G46" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7812,10 +7812,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150418</v>
       </c>
       <c r="M46" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239502</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7827,31 +7827,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972672</v>
       </c>
       <c r="T46" t="n">
-        <v>1628.774119163341</v>
+        <v>1896.038935374012</v>
       </c>
       <c r="U46" t="n">
-        <v>1339.668814705368</v>
+        <v>1606.933630916038</v>
       </c>
       <c r="V46" t="n">
-        <v>1339.668814705368</v>
+        <v>1352.249142710151</v>
       </c>
       <c r="W46" t="n">
-        <v>1339.668814705368</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.993391121635</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.200811978105</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411117</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>316.5995337026455</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K12" t="n">
-        <v>32.4998215484714</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>90.70213529832017</v>
       </c>
       <c r="O14" t="n">
-        <v>53.84110201061594</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>206.5043916218343</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.6078764300178</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832023</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>173.1059208151701</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>74.60209794880114</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>212.3136585025571</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>204.157687222152</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>74.60209794880126</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534063</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.967434612012021</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>204.1576872221531</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>260.0527905534063</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.60209794880225</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411117</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>60.55604879233533</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>74.6020979488024</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>194.3363706804249</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>120.1689464528306</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411117</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>231.9993683640909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>410.115335681932</v>
+        <v>296.9138238411117</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>28.70372984995265</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534063</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880123</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990409</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>83.18512634650416</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.90097600017677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>60.09184015003143</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.25045447929811</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>47.26773204264759</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>68.86420255153729</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.15659537898078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>91.3736754465501</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956054</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>59.89190222777778</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>85.87291693942919</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.35491263788127</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>60.95270983984992</v>
       </c>
       <c r="S28" t="n">
         <v>190.5400452173542</v>
@@ -24657,7 +24657,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>36.79861603130536</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>205.3129502507093</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>60.09184015003166</v>
       </c>
       <c r="T34" t="n">
-        <v>30.4079720183629</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.7508759813054</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>215.2981651981067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>87.30279992613887</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956054</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>206.5258027966006</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>172.6405447596626</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>119.1108375756259</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388263</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>202.8686664329786</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>93.37098604114155</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756443.5081331432</v>
+        <v>756443.508133143</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756443.5081331431</v>
+        <v>756443.5081331432</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756443.5081331431</v>
+        <v>756443.508133143</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756443.5081331432</v>
+        <v>756443.508133143</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756443.5081331432</v>
+        <v>756443.508133143</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756443.5081331431</v>
+        <v>756443.5081331428</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050933</v>
       </c>
       <c r="F2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050937</v>
       </c>
       <c r="G2" t="n">
         <v>654240.3484050937</v>
       </c>
       <c r="H2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050935</v>
       </c>
       <c r="I2" t="n">
         <v>654240.3484050932</v>
       </c>
       <c r="J2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050935</v>
       </c>
       <c r="K2" t="n">
         <v>654240.3484050937</v>
       </c>
       <c r="L2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050937</v>
       </c>
       <c r="M2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050937</v>
       </c>
       <c r="N2" t="n">
-        <v>654240.3484050934</v>
+        <v>654240.3484050937</v>
       </c>
       <c r="O2" t="n">
-        <v>654240.3484050935</v>
+        <v>654240.3484050938</v>
       </c>
       <c r="P2" t="n">
         <v>654240.3484050934</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518283</v>
+        <v>708251.0967518286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581158</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581158</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187674.0935323504</v>
+        <v>-187674.0935323503</v>
       </c>
       <c r="C6" t="n">
-        <v>402293.7856821943</v>
+        <v>402293.7856821942</v>
       </c>
       <c r="D6" t="n">
         <v>402293.7856821942</v>
       </c>
       <c r="E6" t="n">
-        <v>-173671.5873746157</v>
+        <v>-174372.1665180385</v>
       </c>
       <c r="F6" t="n">
-        <v>534579.5093772126</v>
+        <v>533878.9302337904</v>
       </c>
       <c r="G6" t="n">
-        <v>534579.5093772128</v>
+        <v>533878.9302337904</v>
       </c>
       <c r="H6" t="n">
-        <v>534579.5093772126</v>
+        <v>533878.9302337903</v>
       </c>
       <c r="I6" t="n">
-        <v>534579.5093772124</v>
+        <v>533878.93023379</v>
       </c>
       <c r="J6" t="n">
-        <v>358156.2901846197</v>
+        <v>357455.7110411974</v>
       </c>
       <c r="K6" t="n">
-        <v>534579.5093772128</v>
+        <v>533878.9302337904</v>
       </c>
       <c r="L6" t="n">
-        <v>534579.5093772126</v>
+        <v>533878.9302337904</v>
       </c>
       <c r="M6" t="n">
-        <v>404449.2694078032</v>
+        <v>403748.690264381</v>
       </c>
       <c r="N6" t="n">
-        <v>534579.5093772126</v>
+        <v>533878.9302337904</v>
       </c>
       <c r="O6" t="n">
-        <v>534579.5093772127</v>
+        <v>533878.9302337905</v>
       </c>
       <c r="P6" t="n">
-        <v>534579.5093772126</v>
+        <v>533878.9302337902</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731072</v>
+        <v>687.4987572731075</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.36642400875712</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>343.8352489486665</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>88.7523856271839</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>68.0306271174702</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>145.9479280535423</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>120.9723092250571</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>112.6546010619393</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>47.00444123328205</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>86.52001460662564</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>19.9779425464198</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>83.12091415361559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H11" t="n">
         <v>43.85694049883998</v>
@@ -31761,25 +31761,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q11" t="n">
         <v>462.4490353515545</v>
@@ -31788,13 +31788,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T11" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H12" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R12" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
@@ -31925,16 +31925,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M13" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N13" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279596</v>
@@ -31943,16 +31943,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H14" t="n">
         <v>43.85694049883998</v>
@@ -31998,25 +31998,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q14" t="n">
         <v>462.4490353515545</v>
@@ -32025,13 +32025,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T14" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H15" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R15" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
@@ -32162,16 +32162,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M16" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N16" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279596</v>
@@ -32180,16 +32180,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H17" t="n">
         <v>43.85694049883998</v>
@@ -32235,25 +32235,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q17" t="n">
         <v>462.4490353515545</v>
@@ -32262,13 +32262,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T17" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H18" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R18" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
@@ -32399,16 +32399,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M19" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N19" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279596</v>
@@ -32417,16 +32417,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H20" t="n">
         <v>43.85694049883998</v>
@@ -32472,25 +32472,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q20" t="n">
         <v>462.4490353515545</v>
@@ -32499,13 +32499,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T20" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H21" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R21" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
@@ -32636,16 +32636,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M22" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N22" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279596</v>
@@ -32654,16 +32654,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H23" t="n">
         <v>43.85694049883998</v>
@@ -32709,25 +32709,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q23" t="n">
         <v>462.4490353515545</v>
@@ -32736,13 +32736,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H24" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R24" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
@@ -32873,16 +32873,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M25" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N25" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279596</v>
@@ -32891,16 +32891,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H26" t="n">
         <v>43.85694049883998</v>
@@ -32946,25 +32946,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q26" t="n">
         <v>462.4490353515545</v>
@@ -32973,13 +32973,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H27" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R27" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
@@ -33110,16 +33110,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M28" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N28" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279596</v>
@@ -33128,16 +33128,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H29" t="n">
         <v>43.85694049883998</v>
@@ -33183,25 +33183,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q29" t="n">
         <v>462.4490353515545</v>
@@ -33210,13 +33210,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H30" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R30" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
@@ -33347,16 +33347,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M31" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N31" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279596</v>
@@ -33365,16 +33365,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H32" t="n">
         <v>43.85694049883998</v>
@@ -33420,25 +33420,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q32" t="n">
         <v>462.4490353515545</v>
@@ -33447,13 +33447,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H33" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R33" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
@@ -33584,16 +33584,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M34" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N34" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279596</v>
@@ -33602,16 +33602,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H35" t="n">
         <v>43.85694049883998</v>
@@ -33657,25 +33657,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q35" t="n">
         <v>462.4490353515545</v>
@@ -33684,13 +33684,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H36" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R36" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
@@ -33821,16 +33821,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M37" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N37" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279596</v>
@@ -33839,16 +33839,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H38" t="n">
         <v>43.85694049883998</v>
@@ -33894,25 +33894,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q38" t="n">
         <v>462.4490353515545</v>
@@ -33921,13 +33921,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H39" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R39" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
@@ -34058,16 +34058,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M40" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N40" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279596</v>
@@ -34076,16 +34076,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H41" t="n">
         <v>43.85694049883998</v>
@@ -34131,25 +34131,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q41" t="n">
         <v>462.4490353515545</v>
@@ -34158,13 +34158,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H42" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R42" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
@@ -34295,16 +34295,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M43" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N43" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279596</v>
@@ -34313,16 +34313,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930426</v>
       </c>
       <c r="H44" t="n">
         <v>43.85694049883998</v>
@@ -34368,25 +34368,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078528</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789278</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841762</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552364</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589913</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843456</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841879</v>
+        <v>615.811826184188</v>
       </c>
       <c r="Q44" t="n">
         <v>462.4490353515545</v>
@@ -34395,13 +34395,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168967</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743045</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.342590527514434</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884569</v>
       </c>
       <c r="H45" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111344</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453253</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063402</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121558</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693116</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828166</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418875</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967039</v>
       </c>
       <c r="R45" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557518</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183849</v>
+        <v>9.23545080518385</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785596</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769775</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
@@ -34532,16 +34532,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024695</v>
       </c>
       <c r="M46" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N46" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597451</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463859</v>
+        <v>271.514576546386</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279596</v>
@@ -34550,16 +34550,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328685</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961805</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629361</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1047779430973962</v>
+        <v>0.1047779430973963</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339471</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646393</v>
+        <v>736.9393422553006</v>
       </c>
       <c r="M11" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O11" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P11" t="n">
-        <v>701.1783641315639</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q11" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K12" t="n">
-        <v>264.6492338194376</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R12" t="n">
-        <v>42.10227640033038</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389736</v>
@@ -35588,7 +35588,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646393</v>
+        <v>440.025518414189</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607205</v>
       </c>
       <c r="O14" t="n">
-        <v>545.2760123732746</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004011</v>
@@ -35670,7 +35670,7 @@
         <v>452.4583361370097</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P15" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389736</v>
@@ -35825,7 +35825,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339471</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M17" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O17" t="n">
-        <v>697.939301984493</v>
+        <v>491.4349103626588</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.143345477105</v>
+        <v>390.7512219071228</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K18" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389736</v>
@@ -36062,7 +36062,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051119</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125092</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O20" t="n">
-        <v>664.5408311778287</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q20" t="n">
         <v>452.4583361370097</v>
       </c>
       <c r="R20" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585827</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239251</v>
       </c>
       <c r="K21" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763584</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389736</v>
@@ -36299,7 +36299,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532403</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339471</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L23" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M23" t="n">
-        <v>733.9161623305206</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743844</v>
+        <v>738.8606773845523</v>
       </c>
       <c r="O23" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626588</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239251</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264659</v>
+        <v>433.5460773752673</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389736</v>
@@ -36536,7 +36536,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339471</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O26" t="n">
-        <v>872.235091625404</v>
+        <v>751.4877009160651</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q26" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>60.38504959761217</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389736</v>
@@ -36773,7 +36773,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M29" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N29" t="n">
-        <v>738.8606773845534</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626587</v>
+        <v>751.4877009160651</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q29" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239251</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.0997147594846</v>
+        <v>227.0997147594836</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389736</v>
@@ -37010,7 +37010,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646393</v>
+        <v>736.9393422553006</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O32" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P32" t="n">
-        <v>445.1348792212537</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L33" t="n">
-        <v>433.5460773752683</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389736</v>
@@ -37247,7 +37247,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339471</v>
+        <v>648.790559205112</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M35" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279637</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O35" t="n">
-        <v>685.7712810430836</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.143345477105</v>
+        <v>360.3122919299357</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389736</v>
@@ -37484,7 +37484,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K38" t="n">
-        <v>324.6451466339471</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L38" t="n">
-        <v>857.6867329646393</v>
+        <v>736.9393422553006</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N38" t="n">
-        <v>766.7023585264911</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O38" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239251</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P39" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594836</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389736</v>
@@ -37721,7 +37721,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L41" t="n">
-        <v>850.1408540961208</v>
+        <v>736.9393422553006</v>
       </c>
       <c r="M41" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O41" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254042</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q41" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239251</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N42" t="n">
-        <v>539.1831250347803</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594836</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389736</v>
@@ -37958,7 +37958,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811665</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339473</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646394</v>
       </c>
       <c r="M44" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207962</v>
       </c>
       <c r="N44" t="n">
-        <v>563.4067200123529</v>
+        <v>972.0499145743845</v>
       </c>
       <c r="O44" t="n">
-        <v>872.235091625404</v>
+        <v>751.4877009160651</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289185</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560021</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511937</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709663</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264661</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901375</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859783</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383722</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275573</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106824</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806883</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715709</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627856</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332408</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389736</v>
@@ -38195,7 +38195,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332492</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
